--- a/epigraphhub/data/brasil/sinan/metadata/COLE.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/COLE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="346">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -119,10 +119,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Contato com caso suspeito
-ou confirmado de cólera (até 10
-dias antes do início dos sinais e
-sintomas)</t>
+    <t xml:space="preserve">33. Contato com caso suspeito ou confirmado de cólera (até 10 dias antes do início dos sinais e sintomas)</t>
   </si>
   <si>
     <t xml:space="preserve">tp_contato_caso_suspeito</t>
@@ -186,8 +183,7 @@
     <t xml:space="preserve">FC_CONTATO</t>
   </si>
   <si>
-    <t xml:space="preserve">33. No caso de outros
-(especificar)</t>
+    <t xml:space="preserve">33. No caso de outros (especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_caso_outro</t>
@@ -225,11 +221,11 @@
     <t xml:space="preserve">35. (DDD) Telefone</t>
   </si>
   <si>
-    <t xml:space="preserve">nu_ddd ,
+    <t xml:space="preserve">nu_ddd 
 nu_telefone</t>
   </si>
   <si>
-    <t xml:space="preserve">varchar(2) ,
+    <t xml:space="preserve">varchar(2) 
 varchar(9)</t>
   </si>
   <si>
@@ -243,7 +239,7 @@
     <t xml:space="preserve">36. Endereço do contato</t>
   </si>
   <si>
-    <t xml:space="preserve">co_endereco_contato,
+    <t xml:space="preserve">co_endereco_contato
 no_endereco_contato</t>
   </si>
   <si>
@@ -261,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">tp_vinculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(1),</t>
   </si>
   <si>
     <t xml:space="preserve">1- Consumo de água
@@ -306,8 +299,7 @@
     <t xml:space="preserve">OUT_VINCUL</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Outros Sinais e Sintomas
-Assintomático</t>
+    <t xml:space="preserve">38. Outros Sinais e Sintomas Assintomático</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_assintomatico</t>
@@ -357,8 +349,7 @@
     <t xml:space="preserve">CS_ASSINTO</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Sinais e Sintomas
-Diarréia</t>
+    <t xml:space="preserve">38. Sinais e Sintomas Diarréia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_diarreia</t>
@@ -398,8 +389,7 @@
     <t xml:space="preserve">CS_DIARRE</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Sinais e Sintomas
-Câimbras</t>
+    <t xml:space="preserve">38. Sinais e Sintomas Câimbras</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_caimbra</t>
@@ -412,8 +402,7 @@
     <t xml:space="preserve">CS_CAIMBRA</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Sinais e Sintomas
-Febre</t>
+    <t xml:space="preserve">38. Sinais e Sintomas Febre</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_febre</t>
@@ -425,8 +414,7 @@
     <t xml:space="preserve">CS_FEBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Sinais e Sintomas
-Vômitos</t>
+    <t xml:space="preserve">38. Sinais e Sintomas Vômitos</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_vomito</t>
@@ -439,8 +427,7 @@
     <t xml:space="preserve">CS_VOMITOS</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Sinais e Sintomas
-Dor Abdominal</t>
+    <t xml:space="preserve">38. Sinais e Sintomas Dor Abdominal</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_abdominal</t>
@@ -454,8 +441,7 @@
     <t xml:space="preserve">CS_DOR</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Sinais e Sintomas
-Choque</t>
+    <t xml:space="preserve">38. Sinais e Sintomas Choque</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_choque</t>
@@ -737,7 +723,7 @@
 no_unidade_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">numeric(8),
+    <t xml:space="preserve">numeric(8)
 varchar(70)</t>
   </si>
   <si>
@@ -846,8 +832,7 @@
     <t xml:space="preserve">DT_COLETA</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Uso de antibiótico antes da
-coleta do material</t>
+    <t xml:space="preserve">52. Uso de antibiótico antes da coleta do material</t>
   </si>
   <si>
     <t xml:space="preserve">st_uso_antibiotico</t>
@@ -1176,8 +1161,7 @@
     <t xml:space="preserve">CLASSI_FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">61. Critério de
-confirmação/descarte</t>
+    <t xml:space="preserve">61. Critério de confirmação/descarte</t>
   </si>
   <si>
     <t xml:space="preserve">tp_criterio_confirmacao</t>
@@ -1223,8 +1207,7 @@
     <t xml:space="preserve">CRITERIO</t>
   </si>
   <si>
-    <t xml:space="preserve">62. O caso é Autóctone de
-residência?</t>
+    <t xml:space="preserve">62. O caso é Autóctone de residência?</t>
   </si>
   <si>
     <t xml:space="preserve">tp_autoctone_residencia</t>
@@ -1323,8 +1306,7 @@
     <t xml:space="preserve">TPAUTOCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">63. UF (provável da fonte de
-infecção)</t>
+    <t xml:space="preserve">63. UF (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_infeccao</t>
@@ -1408,8 +1390,7 @@
     <t xml:space="preserve">COUFINF</t>
   </si>
   <si>
-    <t xml:space="preserve">64. País (provável da fonte de
-infecção)</t>
+    <t xml:space="preserve">64. País (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_infeccao</t>
@@ -1487,8 +1468,7 @@
     <t xml:space="preserve">COPAISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">65. Município (provável da fonte
-de infecção)</t>
+    <t xml:space="preserve">65. Município (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_infeccao</t>
@@ -1573,8 +1553,7 @@
     <t xml:space="preserve">COMUNINF</t>
   </si>
   <si>
-    <t xml:space="preserve">66. Distrito
-(provável de infecção)</t>
+    <t xml:space="preserve">66. Distrito (provável de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_distrito_infeccão</t>
@@ -1661,7 +1640,7 @@
     <t xml:space="preserve">67. Bairro (provável de infecção)</t>
   </si>
   <si>
-    <t xml:space="preserve">co_bairro_infeccao,
+    <t xml:space="preserve">co_bairro_infeccao
 no_bairro_infeccao</t>
   </si>
   <si>
@@ -1757,8 +1736,7 @@
 NOBAIINF</t>
   </si>
   <si>
-    <t xml:space="preserve">68. Doença relacionada ao
-trabalho</t>
+    <t xml:space="preserve">68. Doença relacionada ao trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">st_doenca_trabalho</t>
@@ -2058,8 +2036,7 @@
     <t xml:space="preserve">DT_ENCERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 1 Informações
-complementares</t>
+    <t xml:space="preserve">Data 1 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">dt_complementar_1</t>
@@ -2088,8 +2065,7 @@
 Sinan</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 2 Informações
-complementares</t>
+    <t xml:space="preserve">Data 2 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">dt_complementar_2</t>
@@ -2115,8 +2091,7 @@
 Sinan</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 3 Informações
-complementares</t>
+    <t xml:space="preserve">Data 3 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">dt_complementar_3</t>
@@ -2134,8 +2109,7 @@
 Data 3</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 1 Informações
-complementares</t>
+    <t xml:space="preserve">UF 1 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_complementa_1</t>
@@ -2153,8 +2127,7 @@
 UF 1</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 2 Informações
-complementares</t>
+    <t xml:space="preserve">UF 2 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_complementa_2</t>
@@ -2179,8 +2152,7 @@
 Sinan</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 3 Informações
-complementares</t>
+    <t xml:space="preserve">UF 3 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_complementa_3</t>
@@ -2198,8 +2170,7 @@
 UF 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Município 1 Informações
-complementares</t>
+    <t xml:space="preserve">Município 1 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_complementa_1</t>
@@ -2217,8 +2188,7 @@
 Município 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Município 2 Informações
-complementares</t>
+    <t xml:space="preserve">Município 2 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_complementa_2</t>
@@ -2236,68 +2206,13 @@
 Município 2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Município 3 Informações </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">complementares</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">co_municipio_complemen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">ta_3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informações </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">complementares e
+    <t xml:space="preserve">Município 3 Informações complementares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co_municipio_complementa_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações complementares e
 observações
 Deslocamento (datas
 e locais freqüentados
@@ -2306,36 +2221,16 @@
 início dos sinais e
 sintomas)
 Município 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Dado não </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">exportado;
+  </si>
+  <si>
+    <t xml:space="preserve">Dado não exportado;
 disponível na
 notificação
 visualizada pelo
 Sinan</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">País 1 Informações
-complementares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">País 1 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_complementa_1</t>
@@ -2356,8 +2251,7 @@
 País 1</t>
   </si>
   <si>
-    <t xml:space="preserve">País 2 Informações
-complementares</t>
+    <t xml:space="preserve">País 2 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_complementa_2</t>
@@ -2375,8 +2269,7 @@
 País 2</t>
   </si>
   <si>
-    <t xml:space="preserve">País 3 Informações
-complementares</t>
+    <t xml:space="preserve">País 3 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_complementa_3</t>
@@ -2394,8 +2287,7 @@
 País 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de transporte 1
-Informações complementares</t>
+    <t xml:space="preserve">Meio de transporte 1 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_meio_transp_1</t>
@@ -2413,8 +2305,7 @@
 Meio de transporte 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de transporte 2
-Informações complementares</t>
+    <t xml:space="preserve">Meio de transporte 2 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_meio_transp_2</t>
@@ -2432,8 +2323,7 @@
 Meio de transporte 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de transporte 3
-Informações complementares</t>
+    <t xml:space="preserve">Meio de transporte 3 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_meio_transp_3</t>
@@ -2451,8 +2341,7 @@
 Meio de transporte 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de alimento 1 Informações
-complementares</t>
+    <t xml:space="preserve">Tipo de alimento 1 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_tp_alimento_1</t>
@@ -2466,8 +2355,7 @@
 Tipo de alimento 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de alimento 2 Informações
-complementares</t>
+    <t xml:space="preserve">Tipo de alimento 2 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_tp_alimento_2</t>
@@ -2480,8 +2368,7 @@
 Tipo de alimento 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de alimento 3 Informações
-complementares</t>
+    <t xml:space="preserve">Tipo de alimento 3 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_tp_alimento_3</t>
@@ -2495,36 +2382,31 @@
 Tipo de alimento 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de alimento 4 Informações
-complementares</t>
+    <t xml:space="preserve">Tipo de alimento 4 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_tp_alimento_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Local de consumo 1 Informações
-complementares</t>
+    <t xml:space="preserve">Local de consumo 1 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_local_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Local de consumo 2 Informações
-complementares</t>
+    <t xml:space="preserve">Local de consumo 2 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_local_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Local de consumo 3 Informações
-complementares</t>
+    <t xml:space="preserve">Local de consumo 3 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_local_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Local de consumo 4 Informações
-complementares</t>
+    <t xml:space="preserve">Local de consumo 4 Informações complementares</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complementa_local_4</t>
@@ -2537,7 +2419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2595,19 +2477,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2766,8 +2635,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="2" sqref="B7:B8 B47 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28125" defaultRowHeight="68.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2953,1388 +2822,1388 @@
         <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="H37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="H39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="H41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="H42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="H43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="G44" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="H44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="G45" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="H45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="H47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="G48" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>260</v>
       </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>278</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="H53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>293</v>
-      </c>
       <c r="C56" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="C57" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="C62" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>317</v>
-      </c>
       <c r="C63" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>331</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>332</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>32</v>
@@ -4343,16 +4212,16 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>32</v>
@@ -4361,16 +4230,16 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>32</v>
@@ -4379,16 +4248,16 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="68.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>32</v>
@@ -4397,7 +4266,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H74" s="8"/>
     </row>
